--- a/evaluation/RQ3/gpt-4.xlsx
+++ b/evaluation/RQ3/gpt-4.xlsx
@@ -3784,7 +3784,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -28839,7 +28839,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
